--- a/possible_MB2.xlsx
+++ b/possible_MB2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,12 +389,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O14576</t>
+          <t>P25054</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DYNC1I1 DNCI1 DNCIC1</t>
+          <t>['APC DP2.5']</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -407,16 +407,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>O43293</t>
+          <t>P04075</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DAPK3 ZIPK</t>
+          <t>['ALDOA ALDA']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -425,12 +425,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O75935</t>
+          <t>P31947</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DCTN3 DCTN22</t>
+          <t>['SFN HME1']</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -443,16 +443,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P23258</t>
+          <t>P62258</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TUBG1 TUBG</t>
+          <t>['YWHAE']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -461,12 +461,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P27361</t>
+          <t>P27348</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MAPK3 ERK1 PRKM3</t>
+          <t>['YWHAQ']</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -479,12 +479,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P51955</t>
+          <t>P61981</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NEK2 NEK2A NLK1</t>
+          <t>['YWHAG']</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -497,16 +497,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P78527</t>
+          <t>Q09666</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRKDC HYRC HYRC1</t>
+          <t>['AHNAK PM227']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -515,16 +515,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P84243</t>
+          <t>P15121</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>H3F3A H3.3A H3F3 PP781; H3F3B H3.3B</t>
+          <t>['AKR1B1 ALDR1 ALR2']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -533,16 +533,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Q13409</t>
+          <t>P09496</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DYNC1I2 DNCI2 DNCIC2</t>
+          <t>['CLTA']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -551,16 +551,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Q13561</t>
+          <t>P10909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DCTN2 DCTN50</t>
+          <t>['CLU APOJ CLI KUB1 AAG4']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -569,16 +569,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Q14203</t>
+          <t>P61254</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DCTN1</t>
+          <t>['RPL26']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -587,16 +587,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Q14204</t>
+          <t>Q06830</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DYNC1H1 DHC1 DNCH1 DNCL DNECL DYHC KIAA0325</t>
+          <t>['PRDX1 PAGA PAGB TDPX2']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -605,12 +605,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Q15691</t>
+          <t>P51149</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MAPRE1</t>
+          <t>['RAB7A RAB7']</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -623,12 +623,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Q5SW96</t>
+          <t>P62826</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LDLRAP1 ARH</t>
+          <t>['RAN ARA24 OK/SW-cl.81']</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -641,16 +641,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Q8N4N8</t>
+          <t>P61353</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>KIF2B</t>
+          <t>['RPL27']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -659,12 +659,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Q8TF09</t>
+          <t>P17980</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DYNLRB2 DNCL2B DNLC2B ROBLD2</t>
+          <t>['PSMC3 TBP1']</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -677,16 +677,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Q96FJ2</t>
+          <t>P61313</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DYNLL2 DLC2</t>
+          <t>['RPL15 EC45 TCBAP0781']</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -695,16 +695,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Q9HAU4</t>
+          <t>P62191</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SMURF2</t>
+          <t>['PSMC1']</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -713,16 +713,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Q9NP97</t>
+          <t>P26373</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DYNLRB1 BITH DNCL2A DNLC2A ROBLD1 HSPC162</t>
+          <t>['RPL13 BBC1 OK/SW-cl.46']</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -731,16 +731,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Q9UM13</t>
+          <t>P50914</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ANAPC10 APC10</t>
+          <t>['RPL14']</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -749,12 +749,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Q9Y6D9</t>
+          <t>O95613</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MAD1L1 MAD1 TXBP181</t>
+          <t>['PCNT KIAA0402 PCNT2']</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -767,12 +767,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O15392</t>
+          <t>P35998</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BIRC5 API4 IAP4</t>
+          <t>['PSMC2 MSS1']</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -785,16 +785,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O43237</t>
+          <t>P07237</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DYNC1LI2 DNCLI2 LIC2</t>
+          <t>['P4HB ERBA2L PDI PDIA1 PO4DB']</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -803,16 +803,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P36873</t>
+          <t>P62263</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PPP1CC</t>
+          <t>['RPS14 PRO2640']</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -821,12 +821,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P49454</t>
+          <t>Q14141</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CENPF</t>
+          <t>['SEPT6 KIAA0128 SEP2']</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -839,16 +839,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P53350</t>
+          <t>Q9Y228</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PLK1 PLK</t>
+          <t>['TRAF3IP3 T3JAM']</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -857,16 +857,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P62136</t>
+          <t>Q6S8J3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PPP1CA PPP1A</t>
+          <t>['POTEE A26C1A POTE2']</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -875,16 +875,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>P63167</t>
+          <t>P18077</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DYNLL1 DLC1 DNCL1 DNCLC1 HDLC1</t>
+          <t>['RPL35A GIG33']</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -893,16 +893,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Q8IZT6</t>
+          <t>P46778</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ASPM MCPH5</t>
+          <t>['RPL21']</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -911,16 +911,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>O00522</t>
+          <t>P62861</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>KRIT1 CCM1</t>
+          <t>['FAU']</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -929,16 +929,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>O15066</t>
+          <t>P62249</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>KIF3B KIAA0359</t>
+          <t>['RPS16']</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -947,16 +947,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>O60447</t>
+          <t>P37802</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EVI5 NB4S</t>
+          <t>['TAGLN2 KIAA0120 CDABP0035']</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -965,16 +965,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>O75154</t>
+          <t>Q99832</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RAB11FIP3 ARFO1 KIAA0665</t>
+          <t>['CCT7 CCTH NIP7-1']</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -983,12 +983,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>O75410</t>
+          <t>P06703</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TACC1 KIAA1103</t>
+          <t>['S100A6 CACY']</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1001,16 +1001,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>O76070</t>
+          <t>P62753</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SNCG BCSG1 PERSYN PRSN</t>
+          <t>['RPS6 OK/SW-cl.2']</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1019,16 +1019,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>O76095</t>
+          <t>P22626</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JTB HSPC222</t>
+          <t>['HNRNPA2B1 HNRPA2B1']</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1037,16 +1037,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>O94806</t>
+          <t>P18124</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PRKD3 EPK2 PRKCN</t>
+          <t>['RPL7']</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>O95835</t>
+          <t>Q12931</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LATS1 WARTS</t>
+          <t>['TRAP1 HSP75']</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1073,16 +1073,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>O96017</t>
+          <t>Q16881</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CHEK2 CDS1 CHK2 RAD53</t>
+          <t>['TXNRD1 GRIM12 KDRF']</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P02511</t>
+          <t>P13693</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CRYAB CRYA2 HSPB5</t>
+          <t>['TPT1']</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P04899</t>
+          <t>P07951</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GNAI2 GNAI2B</t>
+          <t>['TPM2 TMSB']</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1127,16 +1127,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P08754</t>
+          <t>P23396</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GNAI3</t>
+          <t>['RPS3 OK/SW-cl.26']</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1145,16 +1145,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P11171</t>
+          <t>O75083</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EPB41 E41P</t>
+          <t>['WDR1']</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1163,16 +1163,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>P28482</t>
+          <t>P78371</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MAPK1 ERK2 PRKM1 PRKM2</t>
+          <t>['CCT2 99D8.1 CCTB']</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1181,12 +1181,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P35222</t>
+          <t>P53999</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CTNNB1 CTNNB OK/SW-cl.35 PRO2286</t>
+          <t>['SUB1 PC4 RPO2TC1']</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1199,16 +1199,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P36405</t>
+          <t>P17987</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ARL3 ARFL3</t>
+          <t>['TCP1 CCT1 CCTA']</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>P36507</t>
+          <t>P68366</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MAP2K2 MEK2 MKK2 PRKMK2</t>
+          <t>['TUBA4A TUBA1']</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P40121</t>
+          <t>Q15029</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CAPG AFCP MCP</t>
+          <t>['EFTUD2 KIAA0031 SNRP116']</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1253,16 +1253,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P41236</t>
+          <t>A6NCW0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PPP1R2 IPP2</t>
+          <t>['USP17L3 USP17B USP17F']</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1271,16 +1271,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>P49711</t>
+          <t>P54289</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CTCF</t>
+          <t>['CACNA2D1 CACNL2A CCHL2A MHS3']</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1289,16 +1289,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P50395</t>
+          <t>P27797</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GDI2 RABGDIB</t>
+          <t>['CALR CRTC']</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P50570</t>
+          <t>P60981</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DNM2 DYN2</t>
+          <t>['DSTN ACTDP DSN']</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1325,16 +1325,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P50995</t>
+          <t>P68104</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ANXA11 ANX11</t>
+          <t>['EEF1A1 EEF1A EF1A LENG7']</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P51587</t>
+          <t>P23528</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BRCA2 FACD FANCD1</t>
+          <t>['CFL1 CFL']</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1361,16 +1361,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P53667</t>
+          <t>Q5T655</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LIMK1 LIMK</t>
+          <t>['CFAP58 C10orf80 CCDC147']</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1379,16 +1379,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>P53671</t>
+          <t>Q8NFC6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LIMK2</t>
+          <t>['BOD1L1 BOD1L FAM44A KIAA1327']</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>P53990</t>
+          <t>P29692</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>IST1 KIAA0174</t>
+          <t>['EEF1D EF1D']</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1415,12 +1415,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>P0DP23</t>
+          <t>P63241</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CALM1 CALM CAM CAM1</t>
+          <t>['EIF5A']</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>P0DP24</t>
+          <t>P52292</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CALM2 CAM2 CAMB</t>
+          <t>['KPNA2 RCH1 SRP1']</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1451,16 +1451,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>P0DP25</t>
+          <t>Q15181</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CALM3 CALML2 CAM3 CAMC CAMIII</t>
+          <t>['PPA1 IOPPP PP']</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1469,16 +1469,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>P63096</t>
+          <t>P14625</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GNAI1</t>
+          <t>['HSP90B1 GRP94 TRA1']</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1487,16 +1487,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Q02750</t>
+          <t>P13929</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MAP2K1 MEK1 PRKMK1</t>
+          <t>['ENO3']</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Q12923</t>
+          <t>Q16543</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PTPN13 PNP1 PTP1E PTPL1</t>
+          <t>['CDC37 CDC37A']</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1523,12 +1523,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Q13131</t>
+          <t>P31327</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PRKAA1 AMPK1</t>
+          <t>['CPS1']</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Q13188</t>
+          <t>P04406</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>STK3 KRS1 MST2</t>
+          <t>['GAPDH GAPD CDABP0047 OK/SW-cl.12']</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1559,12 +1559,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Q13464</t>
+          <t>Q02790</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ROCK1</t>
+          <t>['FKBP4 FKBP52']</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1577,16 +1577,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Q13487</t>
+          <t>P0DMV8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SNAPC2 SNAP45</t>
+          <t>['HSPA1A HSP72 HSPA1 HSX70']</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Q13554</t>
+          <t>P61978</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CAMK2B CAM2 CAMK2 CAMKB</t>
+          <t>['HNRNPK HNRPK']</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1613,12 +1613,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Q13555</t>
+          <t>O60506</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CAMK2G CAMK CAMK-II CAMKG</t>
+          <t>['SYNCRIP HNRPQ NSAP1']</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Q14194</t>
+          <t>P21333</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CRMP1 DPYSL1 ULIP3</t>
+          <t>['FLNA FLN FLN1']</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1649,12 +1649,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Q15139</t>
+          <t>P02771</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PRKD1 PKD PKD1 PRKCM</t>
+          <t>['AFP HPAFP']</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Q16181</t>
+          <t>P00742</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SEPT7 CDC10</t>
+          <t>['F10']</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1685,16 +1685,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Q1MSJ5</t>
+          <t>P09211</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CSPP1 CSPP</t>
+          <t>['GSTP1 FAEES3 GST3']</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Q3KR16</t>
+          <t>P50502</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PLEKHG6</t>
+          <t>['ST13 AAG2 FAM10A1 HIP SNC6']</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Q53EZ4</t>
+          <t>O60814</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CEP55 C10orf3 URCC6</t>
+          <t>['HIST1H2BK H2BFT HIRIP1']</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Q5JVL4</t>
+          <t>Q14247</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>EFHC1</t>
+          <t>['CTTN EMS1']</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Q68DK2</t>
+          <t>Q93045</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ZFYVE26 KIAA0321</t>
+          <t>['STMN2 SCG10 SCGN10']</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1775,16 +1775,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Q7L5Y9</t>
+          <t>Q8IZP2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MAEA EMP HLC10 PIG5</t>
+          <t>['ST13P4 FAM10A4']</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1793,16 +1793,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Q86YS3</t>
+          <t>P62244</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>RAB11FIP4 ARFO2 KIAA1821</t>
+          <t>['RPS15A OK/SW-cl.82']</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1811,16 +1811,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Q8IXJ6</t>
+          <t>P62269</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SIRT2 SIR2L SIR2L2</t>
+          <t>['RPS18 D6S218E']</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Q8IYM1</t>
+          <t>P61586</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SEPT12</t>
+          <t>['RHOA ARH12 ARHA RHO12']</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Q8TAP9</t>
+          <t>P62937</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MPLKIP C7orf11 TTDN1</t>
+          <t>['PPIA CYPA']</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1865,16 +1865,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Q8TDX7</t>
+          <t>P21796</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NEK7</t>
+          <t>['VDAC1 VDAC']</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1883,12 +1883,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Q8WUM4</t>
+          <t>P18206</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PDCD6IP AIP1 ALIX KIAA1375</t>
+          <t>['VCL']</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Q92558</t>
+          <t>Q3SY84</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>WASF1 KIAA0269 SCAR1 WAVE1</t>
+          <t>['KRT71 K6IRS1 KB34 KRT6IRS1']</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Q96CT7</t>
+          <t>P08648</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CCDC124</t>
+          <t>['ITGA5 FNRA']</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Q96JE9</t>
+          <t>Q06033</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MAP6 KIAA1878</t>
+          <t>['ITIH3']</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Q96SN8</t>
+          <t>P06748</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CDK5RAP2 CEP215 KIAA1633</t>
+          <t>['NPM1 NPM']</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -1973,16 +1973,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Q99569</t>
+          <t>P15559</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PKP4</t>
+          <t>['NQO1 DIA4 NMOR1']</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Q99728</t>
+          <t>Q15233</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BARD1</t>
+          <t>['NONO NRB54']</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2009,12 +2009,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Q99816</t>
+          <t>O14745</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TSG101</t>
+          <t>['SLC9A3R1 NHERF NHERF1']</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2027,16 +2027,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Q99996</t>
+          <t>P22392</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>AKAP9 AKAP350 AKAP450 KIAA0803</t>
+          <t>['NME2 NM23B']</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Q9BRK4</t>
+          <t>P29966</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>LZTS2 KIAA1813 LAPSER1</t>
+          <t>['MARCKS MACS PRKCSL']</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Q9BXH1</t>
+          <t>P12277</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BBC3 PUMA</t>
+          <t>['CKB CKBB']</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Q9BXL8</t>
+          <t>Q04760</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CDCA4 HEPP</t>
+          <t>['GLO1']</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2099,16 +2099,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Q9BZL6</t>
+          <t>P14618</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PRKD2 PKD2 HSPC187</t>
+          <t>['PKM OIP3 PK2 PK3 PKM2']</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Q9H4B4</t>
+          <t>Q02241</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PLK3 CNK FNK PRK</t>
+          <t>['KIF23 KNSL5 MKLP1']</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Q9H4B6</t>
+          <t>P02008</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SAV1 WW45</t>
+          <t>['HBZ HBZ2']</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Q9HC77</t>
+          <t>P62805</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CENPJ CPAP LAP LIP1</t>
+          <t>['HIST1H4A H4/A H4FA', 'HIST1H4B H4/I H4FI', 'HIST1H4C H4/G H4FG', 'HIST1H4D H4/B H4FB', 'HIST1H4E H4/J H4FJ', 'HIST1H4F H4/C H4FC', 'HIST1H4H H4/H H4FH', 'HIST1H4I H4/M H4FM', 'HIST1H4J H4/E H4FE', 'HIST1H4K H4/D H4FD', 'HIST1H4L H4/K H4FK', 'HIST2H4A H4/N H4F2 H4FN HIST2H4', 'HIST2H4B H4/O H4FO', 'HIST4H4']</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Q9NPQ8</t>
+          <t>P17931</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>RIC8A</t>
+          <t>['LGALS3 MAC2']</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Q9NXR1</t>
+          <t>P04083</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NDE1 NUDE</t>
+          <t>['ANXA1 ANX1 LPC1']</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Q9NZJ0</t>
+          <t>P08758</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DTL CDT2 CDW1 DCAF2 L2DTL RAMP</t>
+          <t>['ANXA5 ANX5 ENX2 PP4']</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2225,12 +2225,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Q9UBP0</t>
+          <t>P05141</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SPAST ADPSP FSP2 KIAA1083 SPG4</t>
+          <t>['SLC25A5 ANT2']</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Q9UQB9</t>
+          <t>P63104</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>AURKC AIE2 AIK3 AIRK3 ARK3 STK13</t>
+          <t>['YWHAZ']</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2261,16 +2261,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Q9Y230</t>
+          <t>P08195</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>RUVBL2 INO80J TIP48 TIP49B CGI-46</t>
+          <t>['SLC3A2 MDU1']</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2279,16 +2279,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Q9Y3E7</t>
+          <t>P09972</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CHMP3 CGI149 NEDF VPS24 CGI-149</t>
+          <t>['ALDOC ALDC']</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2297,16 +2297,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Q9Y696</t>
+          <t>P02768</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CLIC4</t>
+          <t>['ALB GIG20 GIG42 PRO0903 PRO1708 PRO2044 PRO2619 PRO2675 UNQ696/PRO1341']</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2315,16 +2315,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>P27816</t>
+          <t>P50993</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MAP4</t>
+          <t>['ATP1A2 KIAA0778']</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2333,16 +2333,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>P68366</t>
+          <t>P54709</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TUBA4A TUBA1</t>
+          <t>['ATP1B3']</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>P81274</t>
+          <t>P62714</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>GPSM2 LGN</t>
+          <t>['PPP2CB']</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Q14980</t>
+          <t>Q460N5</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>NUMA1 NMP22 NUMA</t>
+          <t>['PARP14 BAL2 KIAA1268']</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2387,16 +2387,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Q15058</t>
+          <t>P30048</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>KIF14 KIAA0042</t>
+          <t>['PRDX3 AOP1']</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Q92974</t>
+          <t>Q9UQ80</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ARHGEF2 KIAA0651 LFP40</t>
+          <t>['PA2G4 EBP1']</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Q9BUB5</t>
+          <t>P11940</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MKNK1 MNK1</t>
+          <t>['PABPC1 PAB1 PABP1 PABPC2']</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2441,16 +2441,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Q9UHD8</t>
+          <t>P20742</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SEPT9 KIAA0991 MSF</t>
+          <t>['PZP CPAMD6']</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>P38398</t>
+          <t>P62820</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BRCA1 RNF53</t>
+          <t>['RAB1A RAB1']</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2477,16 +2477,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>O00444</t>
+          <t>P83731</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PLK4 SAK STK18</t>
+          <t>['RPL24']</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2495,16 +2495,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>P49450</t>
+          <t>P62913</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CENPA</t>
+          <t>['RPL11']</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>P63165</t>
+          <t>P61224</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SUMO1 SMT3C SMT3H3 UBL1 OK/SW-cl.43</t>
+          <t>['RAP1B OK/SW-cl.11']</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>P67775</t>
+          <t>P62333</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>PPP2CA</t>
+          <t>['PSMC6 SUG2']</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Q99661</t>
+          <t>P07737</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>KIF2C KNSL6</t>
+          <t>['PFN1']</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2567,16 +2567,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Q9P258</t>
+          <t>P25786</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>RCC2 KIAA1470 TD60</t>
+          <t>['PSMA1 HC2 NU PROS30 PSC2']</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Q9Y266</t>
+          <t>O14818</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NUDC</t>
+          <t>['PSMA7 HSPC']</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Q9Y5N6</t>
+          <t>Q15366</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ORC6 ORC6L</t>
+          <t>['PCBP2']</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2621,12 +2621,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>P30622</t>
+          <t>Q9Y266</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CLIP1 CYLN1 RSN</t>
+          <t>['NUDC']</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2639,16 +2639,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Q02224</t>
+          <t>O00592</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CENPE</t>
+          <t>['PODXL PCLP PCLP1']</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2657,12 +2657,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Q53HL2</t>
+          <t>Q562R1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CDCA8 PESCRG3</t>
+          <t>['ACTBL2']</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2675,16 +2675,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Q96GD4</t>
+          <t>P46776</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>AURKB AIK2 AIM1 AIRK2 ARK2 STK1 STK12 STK5</t>
+          <t>['RPL27A']</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2693,12 +2693,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Q9NQS7</t>
+          <t>P18621</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>INCENP</t>
+          <t>['RPL17']</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2711,12 +2711,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>O00291</t>
+          <t>Q01105</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HIP1</t>
+          <t>['SET']</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>O00562</t>
+          <t>P23246</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PITPNM1 DRES9 NIR2 PITPNM</t>
+          <t>['SFPQ PSF']</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2747,16 +2747,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>O14578</t>
+          <t>P49368</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CIT CRIK KIAA0949 STK21</t>
+          <t>['CCT3 CCTG TRIC5']</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2765,16 +2765,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>O14662</t>
+          <t>P68363</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>STX16</t>
+          <t>['TUBA1B']</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2783,16 +2783,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>O15294</t>
+          <t>P50991</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>OGT</t>
+          <t>['CCT4 CCTD SRB']</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>O43765</t>
+          <t>Q9Y490</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SGTA SGT SGT1</t>
+          <t>['TLN1 KIAA1027 TLN']</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -2819,16 +2819,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>O75674</t>
+          <t>Q96I25</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>TOM1L1 SRCASM</t>
+          <t>['RBM17 SPF45']</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2837,12 +2837,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>O95425</t>
+          <t>P31949</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SVIL</t>
+          <t>['S100A11 MLN70 S100C']</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2855,16 +2855,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>O95630</t>
+          <t>Q09028</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>STAMBP AMSH</t>
+          <t>['RBBP4 RBAP48']</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>O95832</t>
+          <t>P62857</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CLDN1 CLD1 SEMP1 UNQ481/PRO944</t>
+          <t>['RPS28']</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2891,16 +2891,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>P02545</t>
+          <t>P36578</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>LMNA LMN1</t>
+          <t>['RPL4 RPL1']</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2909,12 +2909,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>P05556</t>
+          <t>Q9Y230</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ITGB1 FNRB MDF2 MSK12</t>
+          <t>['RUVBL2 INO80J TIP48 TIP49B CGI-46']</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2927,16 +2927,16 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>P05976</t>
+          <t>P23526</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MYL1</t>
+          <t>['AHCY SAHH']</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2945,12 +2945,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>P06454</t>
+          <t>P09651</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>PTMA TMSA</t>
+          <t>['HNRNPA1 HNRPA1']</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -2963,16 +2963,16 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>P07355</t>
+          <t>P00760</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ANXA2 ANX2 ANX2L4 CAL1H LPC2D</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2981,16 +2981,16 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>P08134</t>
+          <t>P60866</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>RHOC ARH9 ARHC</t>
+          <t>['RPS20']</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -2999,16 +2999,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>P08670</t>
+          <t>P62241</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>VIM</t>
+          <t>['RPS8 OK/SW-cl.83']</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3017,16 +3017,16 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>P09493</t>
+          <t>P61247</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>TPM1 C15orf13 TMSA</t>
+          <t>['RPS3A FTE1 MFTL']</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3035,12 +3035,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>P11021</t>
+          <t>P04004</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>HSPA5 GRP78</t>
+          <t>['VTN']</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>P11166</t>
+          <t>Q13509</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SLC2A1 GLUT1</t>
+          <t>['TUBB3 TUBB4']</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3071,16 +3071,16 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>P11233</t>
+          <t>Q6ZQQ6</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>RALA RAL</t>
+          <t>['WDR87']</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3089,16 +3089,16 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>P14625</t>
+          <t>P0CG47</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HSP90B1 GRP94 TRA1</t>
+          <t>['UBB']</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -3107,16 +3107,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>P17661</t>
+          <t>Q01518</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DES</t>
+          <t>['CAP1 CAP']</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3125,16 +3125,16 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>P20700</t>
+          <t>O43852</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>LMNB1 LMN2 LMNB</t>
+          <t>['CALU']</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3143,16 +3143,16 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>P23528</t>
+          <t>P47755</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CFL1 CFL</t>
+          <t>['CAPZA2']</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>P24844</t>
+          <t>P52907</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MYL9 MLC2 MRLC1 MYRL2</t>
+          <t>['CAPZA1']</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3179,16 +3179,16 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>P30291</t>
+          <t>P49327</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>WEE1</t>
+          <t>['FASN FAS']</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3197,16 +3197,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>P31150</t>
+          <t>P0DP23</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>GDI1 GDIL OPHN2 RABGDIA XAP4</t>
+          <t>['CALM1 CALM CAM CAM1']</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3215,16 +3215,16 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>P32856</t>
+          <t>P01008</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>STX2 EPIM STX2A STX2B STX2C</t>
+          <t>['SERPINC1 AT3 PRO0309']</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -3233,16 +3233,16 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>P37198</t>
+          <t>P61204</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NUP62</t>
+          <t>['ARF3']</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>P40818</t>
+          <t>P31946</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>USP8 KIAA0055 UBPY</t>
+          <t>['YWHAB']</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3269,12 +3269,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>P46108</t>
+          <t>P53396</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>CRK</t>
+          <t>['ACLY']</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3287,16 +3287,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>P46940</t>
+          <t>Q9NP58</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>IQGAP1 KIAA0051</t>
+          <t>['ABCB6 MTABC3 PRP UMAT']</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3305,16 +3305,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>P50402</t>
+          <t>P13639</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EMD EDMD STA</t>
+          <t>['EEF2 EF2']</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3323,16 +3323,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>P51178</t>
+          <t>Q8WVE0</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PLCD1</t>
+          <t>['EEF1AKMT1 N6AMT2']</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3341,16 +3341,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>P51812</t>
+          <t>P80723</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>RPS6KA3 ISPK1 MAPKAPK1B RSK2</t>
+          <t>['BASP1 NAP22']</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3359,16 +3359,16 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>P55072</t>
+          <t>P16070</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>['CD44 LHR MDU2 MDU3 MIC4']</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3377,16 +3377,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>P60981</t>
+          <t>P52565</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DSTN ACTDP DSN</t>
+          <t>['ARHGDIA GDIA1']</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3395,16 +3395,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>P61158</t>
+          <t>P60842</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ACTR3 ARP3</t>
+          <t>['EIF4A1 DDX2A EIF4A']</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -3413,12 +3413,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>P61160</t>
+          <t>P06396</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ACTR2 ARP2</t>
+          <t>['GSN']</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>P61586</t>
+          <t>P63096</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>RHOA ARH12 ARHA RHO12</t>
+          <t>['GNAI1']</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3449,12 +3449,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>P62330</t>
+          <t>Q14974</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ARF6</t>
+          <t>['KPNB1 NTF97']</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>P62491</t>
+          <t>P04899</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>RAB11A RAB11</t>
+          <t>['GNAI2 GNAI2B']</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3485,16 +3485,16 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>P62745</t>
+          <t>O43854</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RHOB ARH6 ARHB</t>
+          <t>['EDIL3 DEL1']</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3503,12 +3503,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>P63244</t>
+          <t>Q14019</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>RACK1 GNB2L1 HLC7 PIG21</t>
+          <t>['COTL1 CLP']</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Q02952</t>
+          <t>Q9HB71</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>AKAP12 AKAP250</t>
+          <t>['CACYBP S100A6BP SIP PNAS-107']</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -3539,12 +3539,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Q03252</t>
+          <t>Q16658</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>LMNB2 LMN2</t>
+          <t>['FSCN1 FAN1 HSN SNL']</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3557,12 +3557,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Q07157</t>
+          <t>Q96A08</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>TJP1 ZO1</t>
+          <t>['HIST1H2BA TSH2B']</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Q08379</t>
+          <t>O75369</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>GOLGA2</t>
+          <t>['FLNB FLN1L FLN3 TABP TAP']</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3593,16 +3593,16 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Q08945</t>
+          <t>P02765</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SSRP1 FACT80</t>
+          <t>['AHSG FETUA PRO2743']</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3611,16 +3611,16 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Q12959</t>
+          <t>Q01469</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DLG1</t>
+          <t>['FABP5']</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Q13017</t>
+          <t>P27105</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ARHGAP5 RHOGAP5</t>
+          <t>['STOM BND7 EPB72']</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3647,12 +3647,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Q13490</t>
+          <t>P67936</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>BIRC2 API1 MIHB RNF48</t>
+          <t>['TPM4']</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3665,16 +3665,16 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Q13618</t>
+          <t>P60174</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CUL3 KIAA0617</t>
+          <t>['TPI1 TPI']</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3683,12 +3683,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Q14118</t>
+          <t>P08727</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DAG1</t>
+          <t>['KRT19']</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -3701,16 +3701,16 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Q14145</t>
+          <t>P19823</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>KEAP1 INRF2 KIAA0132 KLHL19</t>
+          <t>['ITIH2 IGHEP2']</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -3719,16 +3719,16 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Q15311</t>
+          <t>P13647</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>RALBP1 RLIP1 RLIP76</t>
+          <t>['KRT5']</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3737,16 +3737,16 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Q15349</t>
+          <t>P04259</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>RPS6KA2 MAPKAPK1C RSK3</t>
+          <t>['KRT6B K6B KRTL1']</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -3755,16 +3755,16 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Q15418</t>
+          <t>P48668</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>RPS6KA1 MAPKAPK1A RSK1</t>
+          <t>['KRT6C KRT6E']</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Q16625</t>
+          <t>P08729</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>OCLN</t>
+          <t>['KRT7 SCL']</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -3791,16 +3791,16 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Q7LBR1</t>
+          <t>P40926</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>CHMP1B C18orf2</t>
+          <t>['MDH2']</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -3809,16 +3809,16 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Q8IWB6</t>
+          <t>P51884</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>TEX14 SGK307</t>
+          <t>['LUM LDC SLRR2D']</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3827,12 +3827,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Q8N3E9</t>
+          <t>P26038</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PLCD3 KIAA1964</t>
+          <t>['MSN']</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3845,16 +3845,16 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Q8NBX0</t>
+          <t>O15427</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>SCCPDH CGI-49</t>
+          <t>['SLC16A3 MCT4']</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -3863,12 +3863,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Q8NF91</t>
+          <t>Q02750</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SYNE1 C6orf98 KIAA0796 KIAA1262 KIAA1756 MYNE1</t>
+          <t>['MAP2K1 MEK1 PRKMK1']</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -3881,16 +3881,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Q8WYJ6</t>
+          <t>Q01650</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SEPT1 DIFF6 PNUTL3</t>
+          <t>['SLC7A5 CD98LC LAT1 MPE16']</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3899,16 +3899,16 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Q8WYL5</t>
+          <t>Q14847</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SSH1 KIAA1298 SSH1L</t>
+          <t>['LASP1 MLN50']</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -3917,12 +3917,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Q99829</t>
+          <t>P24844</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>CPNE1 CPN1</t>
+          <t>['MYL9 MLC2 MRLC1 MYRL2']</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Q99961</t>
+          <t>P35579</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SH3GL1 CNSA1 SH3D2B</t>
+          <t>['MYH9']</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Q9BV40</t>
+          <t>P38646</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>VAMP8</t>
+          <t>['HSPA9 GRP75 HSPA9B mt-HSP70']</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Q9H3U1</t>
+          <t>O94851</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>UNC45A SMAP1</t>
+          <t>['MICAL2 KIAA0750 MICAL2PV1 MICAL2PV2']</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -3989,12 +3989,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Q9H4B7</t>
+          <t>P07355</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>TUBB1</t>
+          <t>['ANXA2 ANX2 ANX2L4 CAL1H LPC2D']</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -4007,16 +4007,16 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Q9H8V3</t>
+          <t>P01023</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ECT2</t>
+          <t>['A2M CPAMD5 FWP007']</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4025,12 +4025,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Q9HCD5</t>
+          <t>Q04917</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NCOA5 KIAA1637</t>
+          <t>['YWHAH YWHA1']</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4043,12 +4043,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Q9NQ66</t>
+          <t>P01891</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>PLCB1 KIAA0581</t>
+          <t>['HLA-A HLAA']</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4061,16 +4061,16 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Q9NQC7</t>
+          <t>Q95365</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>CYLD CYLD1 KIAA0849 HSPC057</t>
+          <t>['HLA-B HLAB']</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4079,16 +4079,16 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Q9NQT8</t>
+          <t>P12429</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>KIF13B GAKIN KIAA0639</t>
+          <t>['ANXA3 ANX3']</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4097,12 +4097,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Q9NQW6</t>
+          <t>P01024</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ANLN</t>
+          <t>['C3 CPAMD1']</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -4115,16 +4115,16 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Q9P2Y5</t>
+          <t>P05023</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>UVRAG</t>
+          <t>['ATP1A1']</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4133,16 +4133,16 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Q9UDY2</t>
+          <t>P50238</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>TJP2 X104 ZO2</t>
+          <t>['CRIP1 CRIP CRP1']</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -4151,16 +4151,16 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Q9UFW8</t>
+          <t>P02647</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>CGGBP1 CGGBP</t>
+          <t>['APOA1']</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -4169,16 +4169,16 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Q9UHB6</t>
+          <t>P31939</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>LIMA1 EPLIN SREBP3 PP624</t>
+          <t>['ATIC PURH OK/SW-cl.86']</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4187,16 +4187,16 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Q9UIF7</t>
+          <t>P62750</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>MUTYH MYH</t>
+          <t>['RPL23A']</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -4205,12 +4205,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Q9UKX2</t>
+          <t>P30041</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MYH2 MYHSA2</t>
+          <t>['PRDX6 AOP2 KIAA0106']</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Q9ULW0</t>
+          <t>P35241</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>TPX2 C20orf1 C20orf2 DIL2 HCA519</t>
+          <t>['RDX']</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Q9UM54</t>
+          <t>Q15286</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MYO6 KIAA0389</t>
+          <t>['RAB35 RAB1C RAY']</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Q9UN37</t>
+          <t>P61026</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>VPS4A VPS4</t>
+          <t>['RAB10']</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -4277,16 +4277,16 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Q9UPT5</t>
+          <t>P62829</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>EXOC7 EXO70 KIAA1067</t>
+          <t>['RPL23']</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -4295,16 +4295,16 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Q9Y371</t>
+          <t>P62424</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>SH3GLB1 KIAA0491 CGI-61</t>
+          <t>['RPL7A SURF-3 SURF3']</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4313,16 +4313,16 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Q9Y490</t>
+          <t>P28072</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>TLN1 KIAA1027 TLN</t>
+          <t>['PSMB6 LMPY Y']</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Q9Y5K6</t>
+          <t>O75340</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>CD2AP</t>
+          <t>['PDCD6 ALG2']</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -4349,16 +4349,16 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>O43663</t>
+          <t>P60900</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>PRC1</t>
+          <t>['PSMA6 PROS27']</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>O95235</t>
+          <t>P30086</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>KIF20A MKLP2 RAB6KIFL</t>
+          <t>['PEBP1 PBP PEBP']</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4385,16 +4385,16 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>O95239</t>
+          <t>P30101</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>KIF4A KIF4</t>
+          <t>['PDIA3 ERP57 ERP60 GRP58']</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -4403,16 +4403,16 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>P33176</t>
+          <t>P00558</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>KIF5B KNS KNS1</t>
+          <t>['PGK1 PGKA MIG10 OK/SW-cl.110']</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>P42345</t>
+          <t>P19338</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MTOR FRAP FRAP1 FRAP2 RAFT1 RAPT1</t>
+          <t>['NCL']</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -4439,16 +4439,16 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Q02241</t>
+          <t>P15880</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>KIF23 KNSL5 MKLP1</t>
+          <t>['RPS2 RPS4']</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -4457,16 +4457,16 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Q96Q89</t>
+          <t>Q9Y3U8</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>KIF20B KRMP1 MPHOSPH1</t>
+          <t>['RPL36']</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -4475,16 +4475,16 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Q9H0H5</t>
+          <t>Q02878</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>RACGAP1 KIAA1478 MGCRACGAP</t>
+          <t>['RPL6 TXREB1']</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>O76064</t>
+          <t>P05386</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>RNF8 KIAA0646</t>
+          <t>['RPLP1 RRP1']</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -4511,16 +4511,2194 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>P54132</t>
+          <t>P10599</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>BLM RECQ2 RECQL3</t>
+          <t>['TXN TRDX TRX TRX1']</t>
         </is>
       </c>
       <c r="D231" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Q15019</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>['SEPT2 DIFF6 KIAA0158 NEDD5']</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Q01995</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>['TAGLN SM22 WS3-10']</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Q8NBM4</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>['UBAC2 PHGDHL1 PSEC0110']</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>P07437</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>['TUBB TUBB5 OK/SW-cl.56']</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>P48643</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>['CCT5 CCTE KIAA0098']</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>P00441</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>['SOD1']</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>P26447</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>['S100A4 CAPL MTS1']</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>P55072</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>['VCP']</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>P02788</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>['LTF GIG12 LF']</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>P50990</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>['CCT8 C21orf112 CCTQ KIAA0002']</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>P26639</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>['TARS']</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>P62081</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>['RPS7']</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>P08865</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>['RPSA LAMBR LAMR1']</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>P68371</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>['TUBB4B TUBB2C']</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>P40227</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>['CCT6A CCT6 CCTZ']</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Q05682</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>['CALD1 CAD CDM']</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>P13987</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>['CD59 MIC11 MIN1 MIN2 MIN3 MSK21']</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Q6NZI2</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>['CAVIN1 PTRF FKSG13']</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Q07021</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>['C1QBP GC1QBP HABP1 SF2P32']</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>P11586</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>['MTHFD1 MTHFC MTHFD']</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>P18085</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>['ARF4 ARF2']</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>P09525</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>['ANXA4 ANX4']</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>A6NMY6</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>['ANXA2P2 ANX2L2 ANX2P2 LPC2B']</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>P35613</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>['BSG UNQ6505/PRO21383']</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>P25705</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>['ATP5F1A ATP5A ATP5A1 ATP5AL2 ATPM']</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Q5F1R6</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>['DNAJC21 DNAJA5']</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>P61604</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>['HSPE1']</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>P26641</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>['EEF1G EF1G PRO1608']</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>P50395</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>['GDI2 RABGDIB']</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>P11142</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>['HSPA8 HSC70 HSP73 HSPA10']</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>P04792</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>['HSPB1 HSP27 HSP28']</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>P62873</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>['GNB1']</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>P38405</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>['GNAL']</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>P06744</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>['GPI']</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>P11166</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>['SLC2A1 GLUT1']</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>O14556</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>['GAPDHS GAPD2 GAPDH2 GAPDS HSD-35 HSD35']</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>P02042</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>['HBD']</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>P07900</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>['HSP90AA1 HSP90A HSPC1 HSPCA']</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>P49773</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>['HINT1 HINT PKCI1 PRKCNH1']</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>P08238</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>['HSP90AB1 HSP90B HSPC2 HSPCB']</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>P12259</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>P06733</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>['ENO1 ENO1L1 MBPB1 MPB1']</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>P31948</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>['STIP1']</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>P09493</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>['TPM1 C15orf13 TMSA']</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Q16181</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>['SEPT7 CDC10']</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>P29401</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>['TKT']</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>O43663</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>['PRC1']</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>P05186</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>['ALPL']</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>P13797</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>['PLS3']</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Q9H0H5</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>['RACGAP1 KIAA1478 MGCRACGAP']</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>P08670</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>['VIM']</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>P22314</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>['UBA1 A1S9T UBE1']</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>P13645</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>['KRT10 KPP']</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Q7Z794</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>['KRT77 KRT1B']</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>P08779</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>['KRT16 KRT16A']</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Q7Z3Z0</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>['KRT25 KRT25A']</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>P05787</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>['KRT8 CYK8']</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>P35527</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>['KRT9']</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>P15531</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>['NME1 NDPKA NM23']</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Q08431</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>['MFGE8']</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>P55209</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>['NAP1L1 NRP']</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Q16819</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>['MEP1A']</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>P02545</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>['LMNA LMN1']</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>P40925</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>['MDH1 MDHA']</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Q07666</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>['KHDRBS1 SAM68']</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Q6P0N0</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>['MIS18BP1 C14orf106 KIAA1903 KNL2 M18BP1']</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>P60660</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>['MYL6']</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>P68431</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>['HIST1H3A H3FA', 'HIST1H3B H3FL', 'HIST1H3C H3FC', 'HIST1H3D H3FB', 'HIST1H3E H3FD', 'HIST1H3F H3FI', 'HIST1H3G H3FH', 'HIST1H3H H3FK', 'HIST1H3I H3FF', 'HIST1H3J H3FJ']</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>P00338</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>['LDHA PIG19']</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>P09382</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>['LGALS1']</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>P02649</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>['APOE']</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>P60709</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>['ACTB']</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>P35609</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>['ACTN2']</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>P12814</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>['ACTN1']</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>O43707</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>['ACTN4']</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>P00330</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>['ADH1 ADC1 YOL086C O0947']</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>P04439</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>['HLA-A HLAA']</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>P10809</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>['HSPD1 HSP60']</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>O00299</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>['CLIC1 G6 NCC27']</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>P06576</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>['ATP5F1B ATP5B ATPMB ATPSB']</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>P63244</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>['RACK1 GNB2L1 HLC7 PIG21']</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>P62847</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>['RPS24']</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>P62917</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>['RPL8']</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Q13885</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>['TUBB2A TUBB2']</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>P02786</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>['TFRC']</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>P11021</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>['HSPA5 GRP78']</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>P08133</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>['ANXA6 ANX6']</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Q15758</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>['SLC1A5 ASCT2 M7V1 RDR RDRC']</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>P68032</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>['ACTC1 ACTC']</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>P17661</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>['DES']</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Q9H4A6</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>['GOLPH3 GPP34']</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>P12268</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>['IMPDH2 IMPD2']</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>P10412</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>['HIST1H1E H1F4']</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>P09104</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>['ENO2']</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>P15170</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>['GSPT1 ERF3A']</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>O15360</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>['FANCA FAA FACA FANCH']</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>P42766</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>['RPL35']</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>P49207</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>['RPL34']</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>P30050</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>['RPL12']</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>P36952</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>['SERPINB5 PI5']</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>P62851</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>['RPS25']</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>O75347</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>['TBCA']</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>P24534</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>['EEF1B2 EEF1B EF1B']</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Q58FF8</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>['HSP90AB2P HSP90BB']</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>P69905</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>['HBA1', 'HBA2']</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>P15311</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>['EZR VIL2']</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>P06753</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>['TPM3']</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>P62280</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>['RPS11']</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Q04941</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>['PLP2 A4']</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>P32119</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>['PRDX2 NKEFB TDPX1']</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>P30044</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>['PRDX5 ACR1 SBBI10']</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>P02533</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>['KRT14']</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>P05783</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>['KRT18 CYK18 PIG46']</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>P35908</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>['KRT2 KRT2A KRT2E']</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>P04264</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>['KRT1 KRTA']</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>P26006</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>['ITGA3 MSK18']</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>P05556</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>['ITGB1 FNRB MDF2 MSK12']</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>P04908</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>['HIST1H2AB H2AFM', 'HIST1H2AE H2AFA']</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>P07195</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>['LDHB']</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Q2M296</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>['MTHFSD']</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Q99497</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>['PARK7']</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
